--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Chrome</t>
   </si>
@@ -51,9 +51,6 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>Foobar</t>
-  </si>
-  <si>
     <t>Audacity</t>
   </si>
   <si>
@@ -66,113 +63,107 @@
     <t>TIM</t>
   </si>
   <si>
-    <t>YY</t>
-  </si>
-  <si>
     <t>Everything</t>
   </si>
   <si>
-    <t>Mp3Tag</t>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>VSC</t>
+  </si>
+  <si>
+    <t>Intelli J</t>
+  </si>
+  <si>
+    <t>Unreal</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Xmind</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Pycharm</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Wechat</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Visual P</t>
+  </si>
+  <si>
+    <t>LightShot</t>
+  </si>
+  <si>
+    <t>Noteone</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Wangyi</t>
+  </si>
+  <si>
+    <t>Wunder</t>
+  </si>
+  <si>
+    <t>G Keep</t>
+  </si>
+  <si>
+    <t>Taskbar</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>jbbox</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>netdisk</t>
+  </si>
+  <si>
+    <t>IDE</t>
   </si>
   <si>
     <t>Game</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>IDE</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
-    <t>Intelli J</t>
-  </si>
-  <si>
-    <t>Unreal</t>
-  </si>
-  <si>
-    <t>Unity</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Xmind</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>Pycharm</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Wechat</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>Visual P</t>
-  </si>
-  <si>
-    <t>LightShot</t>
-  </si>
-  <si>
-    <t>Noteone</t>
-  </si>
-  <si>
-    <t>Manage</t>
-  </si>
-  <si>
-    <t>Wangyi</t>
-  </si>
-  <si>
-    <t>Wunder</t>
-  </si>
-  <si>
-    <t>G Keep</t>
-  </si>
-  <si>
-    <t>Taskbar</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>cleaner</t>
-  </si>
-  <si>
-    <t>postman</t>
-  </si>
-  <si>
-    <t>jbbox</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>netdisk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,22 +179,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,17 +355,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,6 +404,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -781,265 +759,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="19">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="F7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H7" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
